--- a/v2/data/raw/c201/c201_data.xlsx
+++ b/v2/data/raw/c201/c201_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinghongmiao/Code/mvt-code/v2/data/raw/c201/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA87FE6-879C-3143-9D56-F866DC5322BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8215348C-3F5C-DF43-9B88-5555E66391E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -525,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -17628,7 +17628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
